--- a/medicine/Enfance/Joanna_Concejo/Joanna_Concejo.xlsx
+++ b/medicine/Enfance/Joanna_Concejo/Joanna_Concejo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joanna Concejo, née le 22 mars 1971 à Słupsk (voïvodie de Poméranie, en Pologne), est une illustratrice polonaise.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diplômée de l'Académie des Beaux-Arts de Poznań en 1998[1], Joanna Concejo vit et travaille ensuite à Paris.
-Elle obtient le Grand prix de l'illustration 2021[2] pour ses illustrations de l'ouvrage  Sénégal, sur un texte d'Artur Scriabin (L'Atelier du poisson soluble).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diplômée de l'Académie des Beaux-Arts de Poznań en 1998, Joanna Concejo vit et travaille ensuite à Paris.
+Elle obtient le Grand prix de l'illustration 2021 pour ses illustrations de l'ouvrage  Sénégal, sur un texte d'Artur Scriabin (L'Atelier du poisson soluble).
 </t>
         </is>
       </c>
@@ -543,21 +557,23 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il signor Nessuno (Monsieur Personne) (2008) Éditions du Rouergue, (2008 ed.it) Topipittori
 Grand et petit, textes d’Henri Meunier (2008)
-L'angelo delle scarpe (L'ange des chaussures) avec Giovanna Zoboli, (2009) Éditions Notari, (2009, ed. it) Topipittori[3]
-I cigni selvatici (Les Cygnes sauvages), tiré du conte de Hans Christian Andersen (2011) Éditions Notari, (2011 ed. it) Topipittori[4]
-Quando non trovi la tua casa (Cuando no encuentras tu casa), avec des textes de Paloma Sánchez Ibarzábal, 2011, ed. it[5].
+L'angelo delle scarpe (L'ange des chaussures) avec Giovanna Zoboli, (2009) Éditions Notari, (2009, ed. it) Topipittori
+I cigni selvatici (Les Cygnes sauvages), tiré du conte de Hans Christian Andersen (2011) Éditions Notari, (2011 ed. it) Topipittori
+Quando non trovi la tua casa (Cuando no encuentras tu casa), avec des textes de Paloma Sánchez Ibarzábal, 2011, ed. it.
 Fumo, avec Antón Fortes (2011, ed. it)
-Una stella nel buio (Une étoile dans le noir) une histoire de Lucia Tumiati (it), (2012) Éditions Notari, (2012 ed. it) Topipittori[6]
-Les fleurs parlent, Casterman, 2013[7]
-Quand les groseilles seront mûres, L’Atelier du Poisson Soluble, 2015[8] (ouvrage dédié à son père)
+Una stella nel buio (Une étoile dans le noir) une histoire de Lucia Tumiati (it), (2012) Éditions Notari, (2012 ed. it) Topipittori
+Les fleurs parlent, Casterman, 2013
+Quand les groseilles seront mûres, L’Atelier du Poisson Soluble, 2015 (ouvrage dédié à son père)
 Sénégal, texte d'Artur Scriabin, L'Atelier du poisson soluble, 2020
 M comme la mer (M jak morze), traduit du polonais par Margot Carlier, Wroclaw : Format, 2021
-Tu es là, texte de Lætitia Bourget, Format, 2022[9]
-Monsieur remarquable, Format, 2023[9]</t>
+Tu es là, texte de Lætitia Bourget, Format, 2022
+Monsieur remarquable, Format, 2023</t>
         </is>
       </c>
     </row>
@@ -585,10 +601,12 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Grand prix de l'illustration 2021[2] pour ses illustrations de l'ouvrage  Sénégal, sur un texte d'Artur Scriabin
-Sélection Prix Sorcières 2022[10] Catégorie Carrément sorcières fiction, pour M comme la mer</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Grand prix de l'illustration 2021 pour ses illustrations de l'ouvrage  Sénégal, sur un texte d'Artur Scriabin
+Sélection Prix Sorcières 2022 Catégorie Carrément sorcières fiction, pour M comme la mer</t>
         </is>
       </c>
     </row>
